--- a/bin/test.xlsx
+++ b/bin/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaOH\OneDrive\ExcelVBA\●自作アドイン\ExcelFormulaEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaOH\OneDrive\ExcelVBA\●自作アドイン\ExcelFormulaEditor\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82C37D6-2A89-455D-A6D5-B795DC58A86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F17EF5-DBF2-4665-9167-2B2E89A8DA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="2940" windowWidth="15810" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="2445" windowWidth="15810" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>エディタの起動方法は</t>
     <rPh sb="5" eb="7">
@@ -149,6 +149,81 @@
   </si>
   <si>
     <t>・Ctrl+2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://twitter.com/KotorinChunChun/status/1240838810528657408?s=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来的にはLET関数にも対応したい。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式バーの高さの自動調整</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジドウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数セルへの対応</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引用元</t>
+    <rPh sb="0" eb="3">
+      <t>インヨウモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://thom.hateblo.jp/entry/2017/08/20/122525</t>
+  </si>
+  <si>
+    <t>https://twitter.com/yamaoka_ss/status/1241303109973893120?s=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年前の作品</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://twitter.com/KotorinChunChun/status/1066013293754515456?s=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.0.11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +282,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -231,12 +314,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,8 +338,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,15 +656,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:F12"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3">
         <v>10</v>
       </c>
@@ -592,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="1:6">
       <c r="C4">
         <v>20</v>
       </c>
@@ -614,43 +709,51 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="1:6">
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" ref="D3:D5" si="0">IF(C5="","",IF(C5&gt;60,"○",IF(C5&gt;30,"△","×")))</f>
+        <f t="shared" ref="D5" si="0">IF(C5="","",IF(C5&gt;60,"○",IF(C5&gt;30,"△","×")))</f>
         <v>×</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="1:6">
       <c r="C6">
         <v>40</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" ref="D6:D12" si="1">IF(C6="","",IF(C6&gt;60,"○",IF(C6&gt;30,"△","×")))</f>
+        <f>IF(
+  C6="",
+  "",
+  IF(
+    C6&gt;60,
+    "○",
+    IF(C6&gt;30,"△","×")
+  )
+)</f>
         <v>△</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="1:6">
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D6:D12" si="1">IF(C7="","",IF(C7&gt;60,"○",IF(C7&gt;30,"△","×")))</f>
         <v>△</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="1:6">
       <c r="C8">
         <v>60</v>
       </c>
@@ -660,7 +763,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="1:6">
       <c r="C9">
         <v>70</v>
       </c>
@@ -670,7 +773,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="1:6">
       <c r="C10">
         <v>80</v>
       </c>
@@ -679,7 +782,7 @@
         <v>○</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="1:6">
       <c r="C11">
         <v>90</v>
       </c>
@@ -688,7 +791,7 @@
         <v>○</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="1:6">
       <c r="C12">
         <v>100</v>
       </c>
@@ -697,10 +800,61 @@
         <v>○</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{D898A6AB-57C5-4A4D-9717-640F0BD350C7}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{EAACC320-A623-4318-813C-199FA37E058F}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{365E2705-D571-43B1-9FE9-352ED65B29FB}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{787888F0-5E47-4D65-91AB-EE74AEDB92F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>